--- a/06-03-2023/data/output/xlsx/sample_0/2_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/2_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="155">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,64 +352,133 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__3,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_equals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__2,num_of_unknowns__3</t>
+    <t>num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__0,num_of_decimals__1,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_decimals__13,num_of_decimals__14,num_of_decimals__15,num_of_decimals__16,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__4,num_of_unknowns__0,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3</t>
   </si>
 </sst>
 </file>
@@ -749,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -786,19 +873,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>0.05165289256198347</v>
+        <v>0.05030800821355236</v>
       </c>
       <c r="G2">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H2">
-        <v>-0.002455323870882258</v>
+        <v>-0.002798204211297332</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -809,19 +896,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
+        <v>847</v>
+      </c>
+      <c r="D3">
+        <v>0.05026748842916928</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
       </c>
       <c r="F3">
-        <v>0.05149700598802395</v>
+        <v>0.05430932703659976</v>
       </c>
       <c r="G3">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H3">
-        <v>-0.002611210444841777</v>
+        <v>0.001203114611750065</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -832,19 +922,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>-0.05137532618115404</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G4">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H4">
-        <v>-0.05410821643286573</v>
+        <v>0.009393787575150303</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -855,19 +948,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H5">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -881,16 +974,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H6">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -904,16 +997,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H7">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -927,16 +1020,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H8">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -947,19 +1040,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H9">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -970,19 +1063,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H10">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -993,19 +1086,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0.04026117445554001</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.05630630630630631</v>
       </c>
       <c r="G11">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H11">
-        <v>-0.05410821643286573</v>
+        <v>0.00320009388145661</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1016,19 +1112,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
+        <v>310</v>
+      </c>
+      <c r="D12">
+        <v>0.02918396201109525</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
       </c>
       <c r="F12">
-        <v>0.0468384074941452</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="G12">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H12">
-        <v>-0.007269808938720528</v>
+        <v>0.004958303704182564</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1039,19 +1138,22 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13" t="s">
-        <v>105</v>
+        <v>202</v>
+      </c>
+      <c r="D13">
+        <v>0.02832208089146011</v>
+      </c>
+      <c r="E13" t="s">
+        <v>116</v>
       </c>
       <c r="F13">
-        <v>0.04067796610169491</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="G13">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H13">
-        <v>-0.01343025033117082</v>
+        <v>0.006299728169209706</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1062,19 +1164,22 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
+        <v>152</v>
+      </c>
+      <c r="D14">
+        <v>0.006292450436956098</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
       </c>
       <c r="F14">
-        <v>0.03428571428571429</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="G14">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H14">
-        <v>-0.01982250214715144</v>
+        <v>0.01268326125936083</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1085,19 +1190,22 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="D15">
+        <v>0.007469763148893067</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
       </c>
       <c r="F15">
-        <v>0.03076923076923077</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G15">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H15">
-        <v>-0.02333898566363496</v>
+        <v>0.01832235900372173</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1108,19 +1216,22 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>-0.07795746470704817</v>
+      </c>
+      <c r="E16" t="s">
+        <v>119</v>
       </c>
       <c r="F16">
-        <v>0.02564102564102564</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G16">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H16">
-        <v>-0.02846719079184009</v>
+        <v>0.005717316986915008</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1131,19 +1242,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F17">
-        <v>0.03846153846153846</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G17">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H17">
-        <v>-0.01564667797132727</v>
+        <v>-0.006594584517872953</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1157,16 +1268,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>0.03846153846153846</v>
       </c>
       <c r="G18">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H18">
-        <v>-0.01564667797132727</v>
+        <v>-0.01464467396331123</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1177,19 +1288,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>105</v>
+        <v>654</v>
+      </c>
+      <c r="D19">
+        <v>0.08902180211594264</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="G19">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H19">
-        <v>-0.05410821643286573</v>
+        <v>0.0248754389512971</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1200,22 +1314,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D20">
-        <v>0.07388052742603904</v>
+        <v>0.07231658488221063</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F20">
-        <v>0.07692307692307693</v>
+        <v>0.08918406072106262</v>
       </c>
       <c r="G20">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H20">
-        <v>0.0228148604902112</v>
+        <v>0.03607784829621292</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1226,22 +1340,22 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>0.07600956235123286</v>
+        <v>0.02746193258109767</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F21">
-        <v>0.09003831417624521</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="G21">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H21">
-        <v>0.03593009774337948</v>
+        <v>0.04945789013925286</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1252,22 +1366,22 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>-0.04577915236248831</v>
+        <v>0.03713257067536757</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F22">
-        <v>0.05555555555555555</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="G22">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H22">
-        <v>0.001447339122689822</v>
+        <v>0.07732857018384595</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1278,19 +1392,22 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>0.06887434155286706</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
       </c>
       <c r="F23">
-        <v>0.03703703703703703</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G23">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H23">
-        <v>-0.0170711793958287</v>
+        <v>0.1233643758104444</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1301,19 +1418,22 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>105</v>
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>-0.01401052706594623</v>
+      </c>
+      <c r="E24" t="s">
+        <v>125</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H24">
-        <v>-0.05410821643286573</v>
+        <v>0.03022712090848363</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1324,19 +1444,22 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.002625162135710173</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G25">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H25">
-        <v>-0.05410821643286573</v>
+        <v>0.04689378757515031</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1347,19 +1470,22 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0.002625162135710173</v>
+      </c>
+      <c r="E26" t="s">
+        <v>127</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G26">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H26">
-        <v>-0.05410821643286573</v>
+        <v>0.04689378757515031</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1372,17 +1498,20 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>105</v>
+      <c r="D27">
+        <v>0.02427788888607814</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G27">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H27">
-        <v>-0.05410821643286573</v>
+        <v>0.0718937875751503</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1393,19 +1522,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H28">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1416,19 +1545,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H29">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1442,16 +1571,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H30">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1462,19 +1591,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
+        <v>415</v>
+      </c>
+      <c r="D31">
+        <v>0.05935934413779979</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.0891566265060241</v>
       </c>
       <c r="G31">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H31">
-        <v>-0.05410821643286573</v>
+        <v>0.0360504140811744</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1485,22 +1617,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
-      </c>
-      <c r="D32">
-        <v>0.07210420813279579</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.09245742092457421</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H32">
-        <v>0.03834920449170848</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1511,19 +1640,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H33">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1537,16 +1666,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H34">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1557,22 +1686,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.0522161178799244</v>
-      </c>
-      <c r="E35" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.09570957095709572</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H35">
-        <v>0.04160135452422999</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1583,22 +1709,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>-0.02340109219620675</v>
-      </c>
-      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>111</v>
       </c>
       <c r="F36">
-        <v>0.07729468599033816</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H36">
-        <v>0.02318646955747243</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1609,19 +1732,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.03680981595092025</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H37">
-        <v>-0.01729840048194548</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1632,19 +1755,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.01785714285714286</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H38">
-        <v>-0.03625107357572287</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1655,19 +1778,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.02247191011235955</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H39">
-        <v>-0.03163630632050618</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1678,19 +1801,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.03389830508474576</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H40">
-        <v>-0.02020991134811997</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1701,19 +1824,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.04444444444444445</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H41">
-        <v>-0.009663771988421284</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1724,22 +1847,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
+        <v>296</v>
       </c>
       <c r="D42">
-        <v>0.06946056394294391</v>
+        <v>0.05236966481766578</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="F42">
-        <v>0.05421686746987952</v>
+        <v>0.09797297297297297</v>
       </c>
       <c r="G42">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H42">
-        <v>0.0001086510370137891</v>
+        <v>0.04486676054812327</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1750,22 +1873,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
+        <v>215</v>
       </c>
       <c r="D43">
-        <v>0.06960486704189173</v>
+        <v>0.05211308015974908</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="F43">
-        <v>0.05449041372351161</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="G43">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H43">
-        <v>0.0003821972906458762</v>
+        <v>0.03991704338910379</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1776,19 +1899,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>105</v>
+        <v>166</v>
+      </c>
+      <c r="D44">
+        <v>0.02887784899882058</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="G44">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H44">
-        <v>-0.05410821643286573</v>
+        <v>0.03123113697274066</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1799,19 +1925,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>0.02448188568030755</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="G45">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H45">
-        <v>-0.05410821643286573</v>
+        <v>0.02819460058328038</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,19 +1951,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>0.01227343181928992</v>
+      </c>
+      <c r="E46" t="s">
+        <v>134</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="G46">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H46">
-        <v>-0.05410821643286573</v>
+        <v>0.01905873602875854</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1845,19 +1977,22 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47" t="s">
-        <v>105</v>
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>0.02829150516396427</v>
+      </c>
+      <c r="E47" t="s">
+        <v>135</v>
       </c>
       <c r="F47">
-        <v>0.05392912172573189</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="G47">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H47">
-        <v>-0.0001790947071338353</v>
+        <v>0.0414883821697449</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1868,22 +2003,22 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>-0.1097828622552734</v>
+        <v>0.02789037604827823</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F48">
-        <v>0.0568421052631579</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="G48">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H48">
-        <v>0.002733888830292165</v>
+        <v>0.05106045424181697</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1894,19 +2029,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.082977125317859</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
       </c>
       <c r="F49">
-        <v>0.05211726384364821</v>
+        <v>0.05321285140562249</v>
       </c>
       <c r="G49">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H49">
-        <v>-0.001990952589217519</v>
+        <v>0.0001066389807727955</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1917,19 +2055,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>0.08315056004066096</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
       </c>
       <c r="F50">
-        <v>0.05150214592274678</v>
+        <v>0.05364372469635627</v>
       </c>
       <c r="G50">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H50">
-        <v>-0.002606070510118949</v>
+        <v>0.000537512271506578</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1940,22 +2081,22 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>-0.02882973413017182</v>
+        <v>0.001498546629045339</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="F51">
-        <v>0.05844155844155844</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G51">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H51">
-        <v>0.00433334200869271</v>
+        <v>0.08022712090848363</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1966,19 +2107,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.0297029702970297</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H52">
-        <v>-0.02440524613583603</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1989,19 +2130,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H53">
-        <v>-0.03797918417480121</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2012,19 +2153,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H54">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2035,22 +2176,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
-      </c>
-      <c r="D55">
-        <v>0.003920963165710924</v>
-      </c>
-      <c r="E55" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.06018518518518518</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H55">
-        <v>0.006076968752319452</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2061,22 +2199,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
-      </c>
-      <c r="D56">
-        <v>0.005316529480141859</v>
-      </c>
-      <c r="E56" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.06432748538011696</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H56">
-        <v>0.01021926894725123</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2087,19 +2222,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H57">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2110,19 +2245,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
+        <v>636</v>
+      </c>
+      <c r="D58">
+        <v>0.05386978537731911</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G58">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H58">
-        <v>-0.05410821643286573</v>
+        <v>0.003497561160055965</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2133,19 +2271,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
+        <v>486</v>
+      </c>
+      <c r="D59">
+        <v>0.05979968670473458</v>
+      </c>
+      <c r="E59" t="s">
+        <v>141</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.06378600823045268</v>
       </c>
       <c r="G59">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H59">
-        <v>-0.05410821643286573</v>
+        <v>0.01067979580560298</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2156,19 +2297,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
+        <v>320</v>
+      </c>
+      <c r="D60">
+        <v>0.04325958440070567</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="G60">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H60">
-        <v>-0.05410821643286573</v>
+        <v>0.01564378757515031</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2179,19 +2323,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
+        <v>236</v>
+      </c>
+      <c r="D61">
+        <v>0.04913311720607785</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="G61">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H61">
-        <v>-0.05410821643286573</v>
+        <v>0.02740226215142148</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2202,19 +2349,22 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>105</v>
+        <v>167</v>
+      </c>
+      <c r="D62">
+        <v>0.04663126336551905</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="G62">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H62">
-        <v>-0.05410821643286573</v>
+        <v>0.0187500750003</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2228,19 +2378,19 @@
         <v>110</v>
       </c>
       <c r="D63">
-        <v>0.007821121520351809</v>
+        <v>0.05471365216063925</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="F63">
-        <v>0.07272727272727272</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G63">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H63">
-        <v>0.01861905629440699</v>
+        <v>0.03780287848424121</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2251,19 +2401,22 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
-      </c>
-      <c r="D64" t="s">
-        <v>105</v>
+        <v>65</v>
+      </c>
+      <c r="D64">
+        <v>-0.01661680812137109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
       </c>
       <c r="F64">
-        <v>0.05376344086021505</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="G64">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H64">
-        <v>-0.0003447755726506754</v>
+        <v>0.03920147988284262</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2274,22 +2427,22 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65">
-        <v>0.005970700985138903</v>
+        <v>0.03161067860140727</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="F65">
-        <v>0.07246376811594203</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="G65">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H65">
-        <v>0.0183555516830763</v>
+        <v>0.09395261110456207</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2300,22 +2453,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
-      </c>
-      <c r="D66">
-        <v>0.008068460348507459</v>
-      </c>
-      <c r="E66" t="s">
-        <v>120</v>
+        <v>225</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
       </c>
       <c r="F66">
-        <v>0.07547169811320754</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="G66">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H66">
-        <v>0.02136348168034181</v>
+        <v>-0.004217323535960806</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2326,22 +2476,22 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67">
-        <v>-0.01144326337172702</v>
+        <v>-0.03286796066467203</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="F67">
-        <v>0.0625</v>
+        <v>0.06179775280898876</v>
       </c>
       <c r="G67">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H67">
-        <v>0.00839178356713427</v>
+        <v>0.008691540384139065</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2352,22 +2502,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
-      </c>
-      <c r="D68">
-        <v>0.004539592440406452</v>
-      </c>
-      <c r="E68" t="s">
-        <v>122</v>
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
       </c>
       <c r="F68">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H68">
-        <v>0.02589178356713427</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2378,19 +2525,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H69">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2401,19 +2548,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H70">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2424,19 +2571,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.05410821643286573</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2447,19 +2594,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.05225988700564971</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H72">
-        <v>-0.001848329427216015</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2470,19 +2617,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H73">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2493,22 +2640,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>0.01226085364895336</v>
-      </c>
-      <c r="E74" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.05785123966942149</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H74">
-        <v>0.003743023236555759</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2519,22 +2663,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
-      </c>
-      <c r="D75">
-        <v>-0.03980746953602469</v>
-      </c>
-      <c r="E75" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>0.05555555555555555</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G75">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H75">
-        <v>0.001447339122689822</v>
+        <v>-0.009627951555284481</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2545,19 +2686,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="G76">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H76">
-        <v>-0.05410821643286573</v>
+        <v>-0.007129200930596824</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2568,19 +2709,22 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77" t="s">
-        <v>105</v>
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>-0.06313363598620973</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G77">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H77">
-        <v>-0.05410821643286573</v>
+        <v>0.0004652161465788715</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2591,19 +2735,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G78">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H78">
-        <v>-0.05410821643286573</v>
+        <v>-0.03088399020262747</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2614,19 +2758,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G79">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H79">
-        <v>-0.05410821643286573</v>
+        <v>-0.01739192671056398</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2637,19 +2781,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H80">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2660,19 +2804,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H81">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2683,22 +2827,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82">
-        <v>-0.06208280389786319</v>
-      </c>
-      <c r="E82" t="s">
-        <v>125</v>
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.05908096280087528</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H82">
-        <v>0.004972746368009547</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2709,19 +2850,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>105</v>
+        <v>997</v>
+      </c>
+      <c r="D83">
+        <v>0.08285606767012561</v>
+      </c>
+      <c r="E83" t="s">
+        <v>150</v>
       </c>
       <c r="F83">
-        <v>0.03888888888888889</v>
+        <v>0.05315947843530592</v>
       </c>
       <c r="G83">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H83">
-        <v>-0.01521932754397684</v>
+        <v>5.326601045622242E-05</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2732,19 +2876,22 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
-        <v>105</v>
+        <v>704</v>
+      </c>
+      <c r="D84">
+        <v>0.05636200464062338</v>
+      </c>
+      <c r="E84" t="s">
+        <v>151</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.05823863636363636</v>
       </c>
       <c r="G84">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H84">
-        <v>-0.05410821643286573</v>
+        <v>0.005132423938786664</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2755,19 +2902,22 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
-        <v>105</v>
+        <v>119</v>
+      </c>
+      <c r="D85">
+        <v>-0.05342833395827039</v>
+      </c>
+      <c r="E85" t="s">
+        <v>152</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="G85">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H85">
-        <v>-0.05410821643286573</v>
+        <v>0.02252403967599063</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2778,19 +2928,22 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>105</v>
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>-0.06853341600945877</v>
+      </c>
+      <c r="E86" t="s">
+        <v>153</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G86">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H86">
-        <v>-0.05410821643286573</v>
+        <v>0.01706922617164153</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2801,19 +2954,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G87">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H87">
-        <v>-0.05410821643286573</v>
+        <v>-0.01464467396331123</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2824,19 +2977,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H88">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2847,19 +3000,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H89">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2870,19 +3023,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H90">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2893,19 +3046,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H91">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2916,19 +3069,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.03191489361702127</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H92">
-        <v>-0.02219332281584446</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2939,19 +3092,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
-      </c>
-      <c r="D93" t="s">
-        <v>105</v>
+        <v>466</v>
+      </c>
+      <c r="D93">
+        <v>0.04055615651422416</v>
+      </c>
+      <c r="E93" t="s">
+        <v>154</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="G93">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H93">
-        <v>-0.05410821643286573</v>
+        <v>0.006979624485021547</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2962,19 +3118,19 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="G94">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H94">
-        <v>-0.05410821643286573</v>
+        <v>-0.009627951555284481</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2985,19 +3141,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H95">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3008,19 +3164,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H96">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3031,19 +3187,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H97">
-        <v>-0.05410821643286573</v>
+        <v>-0.0531062124248497</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3054,19 +3210,19 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.04705882352941176</v>
       </c>
       <c r="G98">
-        <v>0.05410821643286573</v>
+        <v>0.0531062124248497</v>
       </c>
       <c r="H98">
-        <v>-0.05410821643286573</v>
+        <v>-0.006047388895437933</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3077,19 +3233,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="G99">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="H99">
+        <v>-0.03088399020262747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.05410821643286573</v>
-      </c>
-      <c r="H99">
-        <v>-0.05410821643286573</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="H100">
+        <v>-0.0531062124248497</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="H101">
+        <v>-0.0531062124248497</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="H102">
+        <v>-0.0531062124248497</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="H103">
+        <v>-0.0531062124248497</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="H104">
+        <v>-0.0531062124248497</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.0531062124248497</v>
+      </c>
+      <c r="H105">
+        <v>-0.0531062124248497</v>
       </c>
     </row>
   </sheetData>
